--- a/data/trans_orig/P36B05-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36B05-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9160</v>
+        <v>10040</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007242521613034145</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002864543711633322</v>
+        <v>0.002882624997099011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0157334186784107</v>
+        <v>0.01724380397518405</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>12491</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7216</v>
+        <v>6535</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21357</v>
+        <v>20911</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01355720505262315</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007831759673460184</v>
+        <v>0.007093171114153156</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02317992844273626</v>
+        <v>0.02269596557516355</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -786,19 +786,19 @@
         <v>16708</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9912</v>
+        <v>9989</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26513</v>
+        <v>26455</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01111200437134527</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006592018118201325</v>
+        <v>0.006643320815735407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01763333270580373</v>
+        <v>0.01759466655294668</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>56389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44386</v>
+        <v>43657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72607</v>
+        <v>72885</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09685112113518282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07623514764836478</v>
+        <v>0.07498307371732026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1247067532215431</v>
+        <v>0.1251852516862708</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -836,19 +836,19 @@
         <v>66831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52027</v>
+        <v>52671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82183</v>
+        <v>84195</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07253594319944864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05646826116365281</v>
+        <v>0.05716688797995607</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08919793941318721</v>
+        <v>0.09138184090423036</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>121</v>
@@ -857,19 +857,19 @@
         <v>123220</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104824</v>
+        <v>103276</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145801</v>
+        <v>144720</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08195137791167864</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06971682920103528</v>
+        <v>0.06868720844375864</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09696985284968339</v>
+        <v>0.09625053546206601</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>345971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>321103</v>
+        <v>321502</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>369263</v>
+        <v>369361</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5942267544547263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5515147507915599</v>
+        <v>0.5521995750746287</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6342324137399542</v>
+        <v>0.6344000025327564</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>545</v>
@@ -907,19 +907,19 @@
         <v>566539</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>534153</v>
+        <v>534323</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>595564</v>
+        <v>595165</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6148992928569159</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5797487172073297</v>
+        <v>0.5799329355159363</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6464015107612332</v>
+        <v>0.6459688937983179</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>888</v>
@@ -928,19 +928,19 @@
         <v>912511</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>873236</v>
+        <v>873091</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>953412</v>
+        <v>950143</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6068943777303918</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5807735519819784</v>
+        <v>0.5806770685116792</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6340972745218389</v>
+        <v>0.6319232736799199</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>152578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131584</v>
+        <v>132180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>176605</v>
+        <v>177027</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2620623735989725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2260031544227718</v>
+        <v>0.2270273329342802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3033298658561137</v>
+        <v>0.3040550104316487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>238</v>
@@ -978,19 +978,19 @@
         <v>251319</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223977</v>
+        <v>226074</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>280986</v>
+        <v>279424</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2727721505000014</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2430954955244297</v>
+        <v>0.2453716904572786</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3049710294094252</v>
+        <v>0.3032754673729318</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>383</v>
@@ -999,19 +999,19 @@
         <v>403898</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>367996</v>
+        <v>370343</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>440653</v>
+        <v>442968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2686250615722254</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2447474865723287</v>
+        <v>0.2463081829555491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2930706134855438</v>
+        <v>0.294609808918625</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>23066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14793</v>
+        <v>14994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32895</v>
+        <v>33911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03961722919808424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02540702017157866</v>
+        <v>0.02575275071020982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05649950718841155</v>
+        <v>0.05824342368132066</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1049,19 +1049,19 @@
         <v>24172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15545</v>
+        <v>15931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34561</v>
+        <v>34235</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02623540839101079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01687138925248109</v>
+        <v>0.01729086227780179</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03751125789760086</v>
+        <v>0.03715716941602344</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -1070,19 +1070,19 @@
         <v>47238</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35481</v>
+        <v>35990</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62655</v>
+        <v>62451</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03141717841435883</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02359810504402171</v>
+        <v>0.02393627065827482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04167071463821161</v>
+        <v>0.0415349387012366</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>6105</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2606</v>
+        <v>2548</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13141</v>
+        <v>13155</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005663651939256331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002417492966364298</v>
+        <v>0.002363469789937897</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01219158023021884</v>
+        <v>0.01220470918588402</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1195,19 +1195,19 @@
         <v>22603</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14077</v>
+        <v>13779</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34218</v>
+        <v>33181</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02139259182683436</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01332320888975734</v>
+        <v>0.01304091599150537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03238640341699398</v>
+        <v>0.03140434365293098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1216,19 +1216,19 @@
         <v>28707</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19935</v>
+        <v>19301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42845</v>
+        <v>41294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01344952469134642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009339567557316771</v>
+        <v>0.00904245603879184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02007299760103107</v>
+        <v>0.01934619320096827</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>110441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91816</v>
+        <v>92200</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131871</v>
+        <v>130910</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1024599184125836</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.085180844274676</v>
+        <v>0.08553736728317454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1223415880595605</v>
+        <v>0.1214498672109142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>99</v>
@@ -1266,19 +1266,19 @@
         <v>102896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85069</v>
+        <v>86193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123652</v>
+        <v>124531</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09738764508290353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08051464769752242</v>
+        <v>0.08157849899368795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1170322030337533</v>
+        <v>0.1178643440538416</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>209</v>
@@ -1287,19 +1287,19 @@
         <v>213337</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187436</v>
+        <v>188557</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>244958</v>
+        <v>244403</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09994912779408183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08781422237559176</v>
+        <v>0.0883393786218804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.114763887742847</v>
+        <v>0.1145038602385437</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>584473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>554917</v>
+        <v>552656</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>617813</v>
+        <v>617892</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5422363365234044</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5148158018523145</v>
+        <v>0.5127184164349955</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5731663474859117</v>
+        <v>0.5732399709673288</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>574</v>
@@ -1337,19 +1337,19 @@
         <v>591327</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>560789</v>
+        <v>558261</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>624455</v>
+        <v>622371</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5596713575680097</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5307678648315332</v>
+        <v>0.5283747735266168</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5910250715629174</v>
+        <v>0.5890532491671984</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1148</v>
@@ -1358,19 +1358,19 @@
         <v>1175801</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1130716</v>
+        <v>1129883</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1220611</v>
+        <v>1219862</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5508667246012758</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5297444642583036</v>
+        <v>0.5293542313593524</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5718604194781364</v>
+        <v>0.5715094252997145</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>341095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>312146</v>
+        <v>312154</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>371349</v>
+        <v>372114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3164456899616372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2895888860572691</v>
+        <v>0.2895957499054448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3445130398997029</v>
+        <v>0.3452235748182924</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>310</v>
@@ -1408,19 +1408,19 @@
         <v>314593</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>283709</v>
+        <v>285483</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>343701</v>
+        <v>345309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2977512276832636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2685207096414702</v>
+        <v>0.2701999058448488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3253017561308535</v>
+        <v>0.3268234182999927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>640</v>
@@ -1429,19 +1429,19 @@
         <v>655688</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>616649</v>
+        <v>618320</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>697221</v>
+        <v>700839</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3071918746690303</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2889023492027827</v>
+        <v>0.2896849254748358</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3266503067785524</v>
+        <v>0.3283455851828658</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>35780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26247</v>
+        <v>25832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49074</v>
+        <v>49794</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03319440316311848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02435054037716125</v>
+        <v>0.02396510212072385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04552740794820094</v>
+        <v>0.04619575859068606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1479,19 +1479,19 @@
         <v>25143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15873</v>
+        <v>15863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37818</v>
+        <v>36515</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0237971778389888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01502295312092492</v>
+        <v>0.015013836417381</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03579368922528635</v>
+        <v>0.03456001707552222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -1500,19 +1500,19 @@
         <v>60923</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45620</v>
+        <v>45795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>77266</v>
+        <v>77746</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02854274824426569</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02137320284163667</v>
+        <v>0.02145526557776645</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03619939382949484</v>
+        <v>0.03642417351809249</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>19013</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11204</v>
+        <v>12136</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27931</v>
+        <v>28273</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01695147790619463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009989176782440294</v>
+        <v>0.01082036644354543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02490300026323176</v>
+        <v>0.02520772485173447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1625,19 +1625,19 @@
         <v>7660</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2965</v>
+        <v>3087</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15189</v>
+        <v>15175</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007722394285830861</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002988822370365854</v>
+        <v>0.003112305710705489</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0153137670131094</v>
+        <v>0.01529916749002025</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1646,19 +1646,19 @@
         <v>26672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18478</v>
+        <v>18428</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38109</v>
+        <v>38359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01262018394340919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008743144434960276</v>
+        <v>0.00871958178817389</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01803176060885053</v>
+        <v>0.01814965472963263</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>76466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60471</v>
+        <v>60858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95487</v>
+        <v>96143</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06817646739669714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05391522858662642</v>
+        <v>0.05426017618659996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08513481995104442</v>
+        <v>0.08572038055588473</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -1696,19 +1696,19 @@
         <v>60253</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44780</v>
+        <v>47095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76667</v>
+        <v>78683</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06074659907915476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0451471355294151</v>
+        <v>0.04748127060644342</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07729591327361597</v>
+        <v>0.07932768476134475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>131</v>
@@ -1717,19 +1717,19 @@
         <v>136719</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112565</v>
+        <v>116140</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>160829</v>
+        <v>161981</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.064689561750176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05326091056343123</v>
+        <v>0.05495269395307593</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07609741887762875</v>
+        <v>0.0766424642684542</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>603356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>568121</v>
+        <v>570198</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>636533</v>
+        <v>638722</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5379451924419486</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.506530228797198</v>
+        <v>0.5083820915514901</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5675255671341672</v>
+        <v>0.5694766638398095</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>570</v>
@@ -1767,19 +1767,19 @@
         <v>577558</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>547459</v>
+        <v>544961</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>605790</v>
+        <v>607588</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5822941571836188</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5519481465411085</v>
+        <v>0.5494295398883881</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6107575250016636</v>
+        <v>0.6125696843257566</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1162</v>
@@ -1788,19 +1788,19 @@
         <v>1180914</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1131862</v>
+        <v>1131729</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1225582</v>
+        <v>1221084</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5587585701447513</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5355489030951633</v>
+        <v>0.5354863158046941</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.579893410573361</v>
+        <v>0.5777650788135797</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>394604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>362934</v>
+        <v>359199</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>428901</v>
+        <v>425729</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3518245247657846</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3235879385481996</v>
+        <v>0.3202572068147366</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3824033682747487</v>
+        <v>0.3795745389724327</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>329</v>
@@ -1838,19 +1838,19 @@
         <v>327965</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>300600</v>
+        <v>296445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>359098</v>
+        <v>356433</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3306544375829583</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3030646770357849</v>
+        <v>0.2988753317349979</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3620426537038209</v>
+        <v>0.3593557608372261</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>718</v>
@@ -1859,19 +1859,19 @@
         <v>722570</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>676868</v>
+        <v>682691</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>768724</v>
+        <v>769711</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3418892078287599</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3202652783097452</v>
+        <v>0.3230203076026068</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3637276925631223</v>
+        <v>0.3641946459145421</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>28155</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18678</v>
+        <v>18674</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40502</v>
+        <v>40977</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02510233748937508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01665339827516688</v>
+        <v>0.01664972286829059</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03611087476837246</v>
+        <v>0.03653429064839907</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1909,19 +1909,19 @@
         <v>18431</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11513</v>
+        <v>11029</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30617</v>
+        <v>28828</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01858241186843726</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01160788133968851</v>
+        <v>0.01111938433822327</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03086823235805549</v>
+        <v>0.02906442028260069</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -1930,19 +1930,19 @@
         <v>46586</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33794</v>
+        <v>34180</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61560</v>
+        <v>61878</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02204247633290362</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.015989873873596</v>
+        <v>0.01617243414102257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02912754306284014</v>
+        <v>0.02927791865170918</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>3729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9639</v>
+        <v>8785</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008356232763113466</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002065230705228314</v>
+        <v>0.002068857485406855</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02160287396525573</v>
+        <v>0.01968739950000329</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>5961</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1951</v>
+        <v>2803</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12721</v>
+        <v>12662</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01752516332650712</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005736371134405921</v>
+        <v>0.008241395755571703</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03739743515708296</v>
+        <v>0.0372223267999314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2076,19 +2076,19 @@
         <v>9690</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4817</v>
+        <v>4839</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17193</v>
+        <v>16571</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.012322483474485</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006125570915567684</v>
+        <v>0.006153256205105342</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02186421234361734</v>
+        <v>0.02107367742770315</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>33295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23438</v>
+        <v>23003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45235</v>
+        <v>44105</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07461959274892996</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05252899961335533</v>
+        <v>0.05155266047315352</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1013788044894517</v>
+        <v>0.09884474765091292</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -2126,19 +2126,19 @@
         <v>27488</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18375</v>
+        <v>18717</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38579</v>
+        <v>39190</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08081012084269756</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05401885458240205</v>
+        <v>0.05502467892042679</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1134134731089229</v>
+        <v>0.1152106510909577</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -2147,19 +2147,19 @@
         <v>60784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>47053</v>
+        <v>48091</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>76027</v>
+        <v>76395</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07729746082590049</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05983617831822841</v>
+        <v>0.06115599541621865</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09668237532249277</v>
+        <v>0.09715073045190736</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>247661</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>227142</v>
+        <v>226057</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>267931</v>
+        <v>267636</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5550452744044004</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5090583085017331</v>
+        <v>0.5066263036965243</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6004725695583295</v>
+        <v>0.5998113590465954</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>177</v>
@@ -2197,19 +2197,19 @@
         <v>178847</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>162002</v>
+        <v>160555</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>198368</v>
+        <v>195884</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5257756262493903</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4762535453528939</v>
+        <v>0.471998416298545</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5831634806671177</v>
+        <v>0.5758596691840233</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>415</v>
@@ -2218,19 +2218,19 @@
         <v>426509</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>399987</v>
+        <v>398785</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>452037</v>
+        <v>451980</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5423839545248621</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5086566391525194</v>
+        <v>0.5071285949576396</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5748478796896481</v>
+        <v>0.5747756375508796</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>148825</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130042</v>
+        <v>128907</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168802</v>
+        <v>168740</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3335390250889231</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2914423678327589</v>
+        <v>0.2888999814397535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3783094920380618</v>
+        <v>0.3781721454304491</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>122</v>
@@ -2268,19 +2268,19 @@
         <v>121543</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104907</v>
+        <v>105574</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>140118</v>
+        <v>140062</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3573117967359065</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.308405743851253</v>
+        <v>0.3103670096811121</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4119198233859803</v>
+        <v>0.4117548261703025</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>268</v>
@@ -2289,19 +2289,19 @@
         <v>270368</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>244149</v>
+        <v>245439</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>294492</v>
+        <v>299736</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.343822533269535</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3104797096083373</v>
+        <v>0.3121210370354696</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3745005617069288</v>
+        <v>0.3811698921612444</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>12690</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7078</v>
+        <v>6819</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20150</v>
+        <v>20626</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02843987499463302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01586348051488952</v>
+        <v>0.01528137097653687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0451586305150123</v>
+        <v>0.0462250094817853</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2339,19 +2339,19 @@
         <v>6319</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2549</v>
+        <v>2588</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13472</v>
+        <v>13325</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01857729284549844</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007492276410664219</v>
+        <v>0.007608131377097764</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03960363525903175</v>
+        <v>0.0391718564840164</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -2360,19 +2360,19 @@
         <v>19009</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11838</v>
+        <v>11326</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28819</v>
+        <v>29763</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02417356790521747</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01505454537335667</v>
+        <v>0.01440365890029816</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03664911264316203</v>
+        <v>0.03784941731118095</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>33063</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23219</v>
+        <v>23221</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44840</v>
+        <v>46481</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01024279078882168</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00719323114235012</v>
+        <v>0.007193912240988293</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01389134883951644</v>
+        <v>0.0143997947900599</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2485,19 +2485,19 @@
         <v>48715</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36450</v>
+        <v>36069</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>66111</v>
+        <v>63719</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01471763518319865</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01101233812777558</v>
+        <v>0.01089720594822303</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01997356709822443</v>
+        <v>0.01925079750570359</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>81</v>
@@ -2506,19 +2506,19 @@
         <v>81777</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>65111</v>
+        <v>66080</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>101408</v>
+        <v>101264</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01250828671056172</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009959031324370262</v>
+        <v>0.0101072679423342</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01551086787821302</v>
+        <v>0.01548884862866694</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>276591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>247683</v>
+        <v>247788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>308612</v>
+        <v>312399</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08568744039419161</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07673174342106101</v>
+        <v>0.07676414385480131</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09560742363411047</v>
+        <v>0.09678071139652121</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>247</v>
@@ -2556,19 +2556,19 @@
         <v>257468</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>229648</v>
+        <v>229797</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>290219</v>
+        <v>289228</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07778632238640928</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06938132037874879</v>
+        <v>0.06942628292438278</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08768087773441285</v>
+        <v>0.08738174854386391</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>522</v>
@@ -2577,19 +2577,19 @@
         <v>534059</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>491981</v>
+        <v>485307</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>580845</v>
+        <v>578547</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08168731233469742</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07525120804812721</v>
+        <v>0.07423029889875929</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08884343988005121</v>
+        <v>0.08849195197872534</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>1781461</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1727481</v>
+        <v>1722753</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1840806</v>
+        <v>1839516</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5518934623966374</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5351703765112408</v>
+        <v>0.5337057746423342</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.570278368601534</v>
+        <v>0.5698786669076944</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1866</v>
@@ -2627,19 +2627,19 @@
         <v>1914272</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1860790</v>
+        <v>1853301</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1972135</v>
+        <v>1964615</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5783403563230036</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.562182179776787</v>
+        <v>0.5599197720143809</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5958218575946251</v>
+        <v>0.5935497775700281</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3613</v>
@@ -2648,19 +2648,19 @@
         <v>3695734</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3615093</v>
+        <v>3616829</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3776633</v>
+        <v>3774753</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5652828286074856</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5529482229719277</v>
+        <v>0.5532138841533474</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5776566495904008</v>
+        <v>0.5773691046842303</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>1037102</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>982929</v>
+        <v>982284</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1090278</v>
+        <v>1092823</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3212923718089672</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3045096977928569</v>
+        <v>0.3043097333933023</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3377661727268616</v>
+        <v>0.3385544741154036</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>999</v>
@@ -2698,19 +2698,19 @@
         <v>1015420</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>958897</v>
+        <v>962921</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1066553</v>
+        <v>1071227</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3067789183190043</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2897021299808817</v>
+        <v>0.2909178210944174</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3222272927409249</v>
+        <v>0.3236394012840743</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2009</v>
@@ -2719,19 +2719,19 @@
         <v>2052523</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1973241</v>
+        <v>1978871</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2124861</v>
+        <v>2130178</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.313944592356973</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3018180162720492</v>
+        <v>0.3026790947121804</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3250091242159728</v>
+        <v>0.3258223363947496</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>99690</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>80959</v>
+        <v>83279</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>120976</v>
+        <v>119792</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03088393461138209</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02508092813252364</v>
+        <v>0.02579981450262974</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03747808615186838</v>
+        <v>0.03711133328552423</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>71</v>
@@ -2769,19 +2769,19 @@
         <v>74066</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>57958</v>
+        <v>58214</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>95104</v>
+        <v>94430</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02237676778838408</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01751035409643623</v>
+        <v>0.01758766886132508</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02873293184425071</v>
+        <v>0.0285291234659344</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>169</v>
@@ -2790,19 +2790,19 @@
         <v>173756</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>151079</v>
+        <v>150347</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>202367</v>
+        <v>202721</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02657697999028235</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02310830633735035</v>
+        <v>0.02299638989473694</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03095309034331226</v>
+        <v>0.03100727058587985</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>15798</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9130</v>
+        <v>8962</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24549</v>
+        <v>25068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01517792729770992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008772350498066546</v>
+        <v>0.00861093679331564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02358618355873597</v>
+        <v>0.02408476064824203</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3155,19 +3155,19 @@
         <v>13686</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7341</v>
+        <v>7514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22426</v>
+        <v>22246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01224265101878774</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006566641548206934</v>
+        <v>0.006721915810694096</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02006036845065237</v>
+        <v>0.0198996975623718</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -3176,19 +3176,19 @@
         <v>29484</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19089</v>
+        <v>20427</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40862</v>
+        <v>41984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01365788181350163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008842545903786489</v>
+        <v>0.009462532616963393</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01892866253544122</v>
+        <v>0.01944839356345169</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>92125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75693</v>
+        <v>74404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115626</v>
+        <v>112144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08851163283438389</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07272399995224113</v>
+        <v>0.07148592883350871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1110911959948532</v>
+        <v>0.107746035985854</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -3226,19 +3226,19 @@
         <v>94883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78636</v>
+        <v>77676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117149</v>
+        <v>116105</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08487539692326634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07034261113167961</v>
+        <v>0.06948335591827551</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1047935290885536</v>
+        <v>0.1038590507214545</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>173</v>
@@ -3247,19 +3247,19 @@
         <v>187008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161870</v>
+        <v>159943</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>214408</v>
+        <v>215788</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08662859238061105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07498373979578056</v>
+        <v>0.07409126290418643</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.099321536945132</v>
+        <v>0.09996066467635786</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>574628</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>541026</v>
+        <v>540981</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>606493</v>
+        <v>606285</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5520907543233302</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5198062320165242</v>
+        <v>0.5197633464042256</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5827054966434886</v>
+        <v>0.5825060037223102</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>600</v>
@@ -3297,19 +3297,19 @@
         <v>657304</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>623699</v>
+        <v>623327</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>693079</v>
+        <v>690568</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5879775682928822</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5579163876010088</v>
+        <v>0.5575842746016625</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6199789964215033</v>
+        <v>0.6177325456687585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1134</v>
@@ -3318,19 +3318,19 @@
         <v>1231932</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1184566</v>
+        <v>1180645</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1278824</v>
+        <v>1279491</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5706748957579044</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5487330788754746</v>
+        <v>0.5469167987852864</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5923968471390637</v>
+        <v>0.592705642197625</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>325823</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>297080</v>
+        <v>293099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356076</v>
+        <v>356978</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3130437897802597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2854281570852687</v>
+        <v>0.2816036863899613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3421099692257832</v>
+        <v>0.3429773288807546</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>303</v>
@@ -3368,19 +3368,19 @@
         <v>324164</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>293661</v>
+        <v>292546</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>355094</v>
+        <v>356352</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2899736743433723</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2626882334828313</v>
+        <v>0.2616905173935454</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3176420605669686</v>
+        <v>0.3187670428684206</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>612</v>
@@ -3389,19 +3389,19 @@
         <v>649986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>606326</v>
+        <v>609560</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>695831</v>
+        <v>699647</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3010968309737512</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2808715364386835</v>
+        <v>0.2823698709346553</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3223338447483602</v>
+        <v>0.3241012904999118</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>32449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22677</v>
+        <v>21642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46095</v>
+        <v>45866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0311758957643163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0217876382891961</v>
+        <v>0.02079302066631161</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04428756316253978</v>
+        <v>0.04406670350499216</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -3439,19 +3439,19 @@
         <v>27870</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17886</v>
+        <v>18570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40461</v>
+        <v>41032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02493070942169149</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01599976407244768</v>
+        <v>0.01661143698927914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03619317675575968</v>
+        <v>0.03670441767308012</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -3460,19 +3460,19 @@
         <v>60319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46506</v>
+        <v>46636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77756</v>
+        <v>76611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02794179907423166</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02154318684092833</v>
+        <v>0.02160341364427382</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0360195681848259</v>
+        <v>0.03548892271936086</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>17358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10186</v>
+        <v>10056</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27524</v>
+        <v>28689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01776558606804378</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01042485642757194</v>
+        <v>0.0102916812024933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02817000268928086</v>
+        <v>0.02936236906210842</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3585,19 +3585,19 @@
         <v>6167</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2185</v>
+        <v>2802</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13027</v>
+        <v>13771</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005640930518147123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001998663198189846</v>
+        <v>0.002562780191174032</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01191619400511484</v>
+        <v>0.01259745900479582</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3606,19 +3606,19 @@
         <v>23525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14956</v>
+        <v>15019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34790</v>
+        <v>34570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01136323029244713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007224356300285248</v>
+        <v>0.007254576484664013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01680467791352396</v>
+        <v>0.01669850132125678</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>95809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>77848</v>
+        <v>77206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115060</v>
+        <v>114618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09805733861596894</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07967473694785675</v>
+        <v>0.07901776065773795</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1177597827391209</v>
+        <v>0.1173072732108281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -3656,19 +3656,19 @@
         <v>132095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112027</v>
+        <v>109997</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157114</v>
+        <v>158306</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1208346146021024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1024773649770173</v>
+        <v>0.1006197035635913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1437201132577918</v>
+        <v>0.1448110140503076</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>215</v>
@@ -3677,19 +3677,19 @@
         <v>227904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>199517</v>
+        <v>201900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>259254</v>
+        <v>257787</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1100847503524965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09637266181061842</v>
+        <v>0.09752377915689195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1252272831576901</v>
+        <v>0.124518867632148</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>523719</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>492462</v>
+        <v>491488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>559922</v>
+        <v>556001</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5360076712729749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5040174444244688</v>
+        <v>0.5030206599724768</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5730607161821304</v>
+        <v>0.5690470961001037</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>578</v>
@@ -3727,19 +3727,19 @@
         <v>621383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>587736</v>
+        <v>588983</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>653244</v>
+        <v>656059</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.568412266862138</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5376330571228191</v>
+        <v>0.5387743839736648</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5975571705936567</v>
+        <v>0.6001319546825773</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1065</v>
@@ -3748,19 +3748,19 @@
         <v>1145102</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1101725</v>
+        <v>1096514</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1187062</v>
+        <v>1190666</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5531187346654455</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5321665006055751</v>
+        <v>0.5296494098888268</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5733867559209075</v>
+        <v>0.575127408313904</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>307267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>276999</v>
+        <v>278204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>336882</v>
+        <v>336683</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3144765941797116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2834985129420319</v>
+        <v>0.2847317846188759</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3447864717200663</v>
+        <v>0.3445836355071607</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>294</v>
@@ -3798,19 +3798,19 @@
         <v>314612</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>283147</v>
+        <v>282492</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>343571</v>
+        <v>345410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2877920701294449</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2590096437983563</v>
+        <v>0.2584102165260881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3142823445181392</v>
+        <v>0.3159645087036518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>591</v>
@@ -3819,19 +3819,19 @@
         <v>621878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>583174</v>
+        <v>579952</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>665948</v>
+        <v>664314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3003859822056891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2816907293315368</v>
+        <v>0.2801342343699645</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3216727973678178</v>
+        <v>0.3208838798813271</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>32920</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23230</v>
+        <v>22537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46014</v>
+        <v>45582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03369280986330078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02377556953695782</v>
+        <v>0.02306575658898232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04709416082662603</v>
+        <v>0.04665162274478114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -3869,19 +3869,19 @@
         <v>18934</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11175</v>
+        <v>11192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30042</v>
+        <v>28705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0173201178881675</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01022199406315202</v>
+        <v>0.01023757720558778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02748113159467084</v>
+        <v>0.02625837022206817</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -3890,19 +3890,19 @@
         <v>51855</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38621</v>
+        <v>39007</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69680</v>
+        <v>69603</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02504730248392183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01865486753477935</v>
+        <v>0.01884145001185362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0336576244496741</v>
+        <v>0.03362017493766405</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>14171</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7790</v>
+        <v>7820</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24640</v>
+        <v>24379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01604973268740728</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008822516717166442</v>
+        <v>0.008857018061557911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02790643706183055</v>
+        <v>0.02761082492439407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4015,19 +4015,19 @@
         <v>10218</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5054</v>
+        <v>4052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18756</v>
+        <v>18506</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01169313888259379</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005783866382361245</v>
+        <v>0.00463669525821208</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02146243822241708</v>
+        <v>0.02117679417064093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -4036,19 +4036,19 @@
         <v>24389</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16205</v>
+        <v>15051</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36917</v>
+        <v>36118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01388267250193062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009223835487010095</v>
+        <v>0.008567323052787876</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02101352456164568</v>
+        <v>0.02055887471102791</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>97516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77591</v>
+        <v>78981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116822</v>
+        <v>118692</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1104435317105833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08787804442425168</v>
+        <v>0.0894513556575617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1323092508820023</v>
+        <v>0.134427848525641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>111</v>
@@ -4086,19 +4086,19 @@
         <v>117799</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98876</v>
+        <v>98864</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142531</v>
+        <v>137858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1347993289913488</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1131458560481959</v>
+        <v>0.1131312820869425</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1631003890381648</v>
+        <v>0.1577532567484594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -4107,19 +4107,19 @@
         <v>215314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188838</v>
+        <v>188799</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246834</v>
+        <v>244568</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1225586108153582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1074881770739444</v>
+        <v>0.1074658397451088</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1404998582973099</v>
+        <v>0.1392098686265081</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>494124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>460937</v>
+        <v>463642</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>522424</v>
+        <v>525268</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5596311834058092</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5220449806139155</v>
+        <v>0.525108077303464</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.591683643910961</v>
+        <v>0.5949045463687722</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>444</v>
@@ -4157,19 +4157,19 @@
         <v>470849</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>437639</v>
+        <v>442303</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>498529</v>
+        <v>501700</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5388005148407073</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5007981116407477</v>
+        <v>0.5061350997233783</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.570476209894535</v>
+        <v>0.574104485255042</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>903</v>
@@ -4178,19 +4178,19 @@
         <v>964972</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>922728</v>
+        <v>920890</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1011691</v>
+        <v>1006846</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5492695764929919</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5252240625972849</v>
+        <v>0.5241777691043711</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5758623309322628</v>
+        <v>0.573104390911317</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>258566</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>232716</v>
+        <v>230849</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>287712</v>
+        <v>289143</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2928453829438203</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2635684803771064</v>
+        <v>0.261453907901956</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.325855499786563</v>
+        <v>0.3274754339430799</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>234</v>
@@ -4228,19 +4228,19 @@
         <v>252732</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>225650</v>
+        <v>226462</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>281420</v>
+        <v>279326</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2892061134890622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2582155700343673</v>
+        <v>0.2591443551199989</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3220343159131037</v>
+        <v>0.3196375412137825</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>480</v>
@@ -4249,19 +4249,19 @@
         <v>511299</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>470294</v>
+        <v>473437</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>548838</v>
+        <v>549447</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2910351347790926</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2676951308366424</v>
+        <v>0.2694838001988148</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3124025904408418</v>
+        <v>0.3127495528256577</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>18568</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11141</v>
+        <v>11447</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27962</v>
+        <v>28633</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02103016925237994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01261781225658483</v>
+        <v>0.01296435637482016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03166858495575087</v>
+        <v>0.03242926545676991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>22</v>
@@ -4299,19 +4299,19 @@
         <v>22285</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14041</v>
+        <v>14292</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32737</v>
+        <v>32704</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0255009037962878</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01606713404160491</v>
+        <v>0.01635442586297659</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0374614938498489</v>
+        <v>0.03742397389348956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -4320,19 +4320,19 @@
         <v>40853</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29646</v>
+        <v>29674</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53990</v>
+        <v>53815</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02325400541062666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01687499451421451</v>
+        <v>0.01689046339914554</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03073176564085726</v>
+        <v>0.0306320587284586</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>7424</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3233</v>
+        <v>3194</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15092</v>
+        <v>14863</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01478599265030084</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006439320004176768</v>
+        <v>0.006360435330232532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03005690218708582</v>
+        <v>0.02960041111686739</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4445,19 +4445,19 @@
         <v>9061</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3990</v>
+        <v>4117</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18315</v>
+        <v>18597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02019176251561402</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008890581108998619</v>
+        <v>0.009172995085332916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04081174994286042</v>
+        <v>0.04143886969053021</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -4466,19 +4466,19 @@
         <v>16486</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9649</v>
+        <v>9233</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28850</v>
+        <v>26447</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01733725880619793</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01014770844760954</v>
+        <v>0.009709583227449664</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03034008695997614</v>
+        <v>0.02781310266008789</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>39174</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27257</v>
+        <v>28081</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52920</v>
+        <v>53773</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07801815247729472</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05428532512337478</v>
+        <v>0.05592521159469088</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1053941490614062</v>
+        <v>0.1070939177331036</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -4516,19 +4516,19 @@
         <v>42389</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30658</v>
+        <v>30915</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58373</v>
+        <v>56246</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09445609610773938</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06831443679307166</v>
+        <v>0.06888755730339351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1300724967136605</v>
+        <v>0.1253338626183869</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -4537,19 +4537,19 @@
         <v>81563</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>64573</v>
+        <v>63654</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100648</v>
+        <v>99950</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08577607971093359</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06790886697236488</v>
+        <v>0.06694176475029162</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1058463022096428</v>
+        <v>0.1051126718556883</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>256397</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>230781</v>
+        <v>233617</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>280324</v>
+        <v>279557</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5106374109182027</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4596212523889497</v>
+        <v>0.4652679458938122</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5582904646360967</v>
+        <v>0.5567620372853881</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>212</v>
@@ -4587,19 +4587,19 @@
         <v>230366</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>207192</v>
+        <v>210348</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>251709</v>
+        <v>252012</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5133247310951957</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4616864049874721</v>
+        <v>0.4687188196414389</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5608847564673566</v>
+        <v>0.5615599236015291</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>444</v>
@@ -4608,19 +4608,19 @@
         <v>486763</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>455313</v>
+        <v>454645</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>516484</v>
+        <v>520655</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5119056981720894</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4788309179619557</v>
+        <v>0.47812845799409</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.543162256582575</v>
+        <v>0.5475480449689654</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>185030</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>161685</v>
+        <v>164072</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>209888</v>
+        <v>206412</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3685039244120907</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3220092339252744</v>
+        <v>0.3267636981716784</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4180105040198894</v>
+        <v>0.411088104792934</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>148</v>
@@ -4658,19 +4658,19 @@
         <v>161377</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139862</v>
+        <v>140586</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182757</v>
+        <v>180881</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.359597039111389</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3116558758406607</v>
+        <v>0.313267907145235</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4072384046504889</v>
+        <v>0.4030572597929121</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>322</v>
@@ -4679,19 +4679,19 @@
         <v>346407</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>315807</v>
+        <v>317536</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>377060</v>
+        <v>377694</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3643002983628303</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.332119554275353</v>
+        <v>0.3339371822588641</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3965363666778337</v>
+        <v>0.397202993238395</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>14087</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8046</v>
+        <v>7843</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24391</v>
+        <v>24962</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02805451954211102</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01602530368063289</v>
+        <v>0.01562057383208092</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04857629644975782</v>
+        <v>0.04971361175862954</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -4729,19 +4729,19 @@
         <v>5578</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2042</v>
+        <v>2086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13582</v>
+        <v>12291</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01243037117006197</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004550705218546836</v>
+        <v>0.004648469518437365</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03026424090438517</v>
+        <v>0.02738700528605282</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -4750,19 +4750,19 @@
         <v>19665</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12598</v>
+        <v>11714</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31995</v>
+        <v>29760</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02068066494794881</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01324843870983156</v>
+        <v>0.01231952916265876</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03364753118681714</v>
+        <v>0.03129687267373586</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>54751</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41659</v>
+        <v>42063</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71313</v>
+        <v>71746</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01608928092002949</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01224209337874533</v>
+        <v>0.01236085174608339</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02095621333842832</v>
+        <v>0.02108334501116475</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -4875,19 +4875,19 @@
         <v>39133</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27627</v>
+        <v>27758</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>53572</v>
+        <v>55048</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01107397426558967</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007817972314389287</v>
+        <v>0.007854993511235923</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01515997866970616</v>
+        <v>0.01557764749338359</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>87</v>
@@ -4896,19 +4896,19 @@
         <v>93884</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>77139</v>
+        <v>73822</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>117327</v>
+        <v>113791</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01353434234077369</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01112037347741617</v>
+        <v>0.01064220908442901</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.016913907080878</v>
+        <v>0.0164041396688955</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>324623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>294034</v>
+        <v>288235</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>361346</v>
+        <v>359096</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0953946612776805</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08640557276897388</v>
+        <v>0.08470145618921292</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1061859766280986</v>
+        <v>0.1055248254151712</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>358</v>
@@ -4946,19 +4946,19 @@
         <v>387166</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>351159</v>
+        <v>351530</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>427990</v>
+        <v>428542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.109562325238294</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09937285472313702</v>
+        <v>0.09947783255559858</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.121114914483349</v>
+        <v>0.12127105592683</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>662</v>
@@ -4967,19 +4967,19 @@
         <v>711790</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>662232</v>
+        <v>653945</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>765665</v>
+        <v>763642</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1026120686517359</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09546785831937113</v>
+        <v>0.09427316136686133</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1103787191731601</v>
+        <v>0.1100871812023034</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>1848868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1789209</v>
+        <v>1787990</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1911130</v>
+        <v>1910214</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5433128544569874</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5257813024336672</v>
+        <v>0.5254231407963315</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5616095483993435</v>
+        <v>0.5613402591911474</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1834</v>
@@ -5017,19 +5017,19 @@
         <v>1979902</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1921638</v>
+        <v>1917779</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2045616</v>
+        <v>2038295</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5602830240621949</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5437952554883243</v>
+        <v>0.54270311725542</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5788791130552982</v>
+        <v>0.5768075435061015</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3546</v>
@@ -5038,19 +5038,19 @@
         <v>3828769</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3744036</v>
+        <v>3739128</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3908839</v>
+        <v>3910273</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5519579372023218</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5397427594156162</v>
+        <v>0.5390352285103173</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5635008538673738</v>
+        <v>0.5637076236906031</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>1076686</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1021147</v>
+        <v>1021025</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1130741</v>
+        <v>1137863</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3163976590142702</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3000767890574086</v>
+        <v>0.300040894064723</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3322824217230798</v>
+        <v>0.3343751691301456</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>979</v>
@@ -5088,19 +5088,19 @@
         <v>1052885</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>993772</v>
+        <v>999238</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1107740</v>
+        <v>1107028</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2979508406758692</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2812227176576101</v>
+        <v>0.2827697298476841</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3134742044544268</v>
+        <v>0.3132726474302593</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2005</v>
@@ -5109,19 +5109,19 @@
         <v>2129571</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2045302</v>
+        <v>2054231</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2208584</v>
+        <v>2209672</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3070003297810555</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2948520235690362</v>
+        <v>0.2961393481119202</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.318390985077309</v>
+        <v>0.3185477744272591</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>98024</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>78942</v>
+        <v>78457</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>119268</v>
+        <v>117103</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02880554433103239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02319794839723022</v>
+        <v>0.02305558676541805</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03504842924746803</v>
+        <v>0.03441210169104664</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>71</v>
@@ -5159,19 +5159,19 @@
         <v>74668</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>58772</v>
+        <v>58622</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>93171</v>
+        <v>93276</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02112983575805224</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01663165648514591</v>
+        <v>0.01658906906878862</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02636594440332043</v>
+        <v>0.02639585708357187</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>165</v>
@@ -5180,19 +5180,19 @@
         <v>172692</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>146633</v>
+        <v>147910</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>199517</v>
+        <v>198574</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02489532202411308</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02113873067791258</v>
+        <v>0.02132284786408854</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02876247214179319</v>
+        <v>0.02862650488085166</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>15792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9558</v>
+        <v>9195</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26451</v>
+        <v>24944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0140194225801369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008485350850298822</v>
+        <v>0.008163497196531689</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02348229108094094</v>
+        <v>0.02214497653115851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -5545,19 +5545,19 @@
         <v>18457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11163</v>
+        <v>11238</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30105</v>
+        <v>28608</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01466615651095486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008870473244805485</v>
+        <v>0.008930011662037815</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02392150927669076</v>
+        <v>0.02273265299797695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -5566,19 +5566,19 @@
         <v>34249</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24020</v>
+        <v>23932</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47640</v>
+        <v>47205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01436069634347944</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01007162985909878</v>
+        <v>0.01003506018369594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01997568529540269</v>
+        <v>0.01979324076415857</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>125762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105905</v>
+        <v>107206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149079</v>
+        <v>148294</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1116482746582672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09401973554784397</v>
+        <v>0.09517473440753005</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1323491453834769</v>
+        <v>0.1316519363132707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -5616,19 +5616,19 @@
         <v>153557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130520</v>
+        <v>129151</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180215</v>
+        <v>180442</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1220181088311355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1037125013392695</v>
+        <v>0.102625070514676</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1432006334238903</v>
+        <v>0.1433814908425096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>261</v>
@@ -5637,19 +5637,19 @@
         <v>279319</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>249744</v>
+        <v>247267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>315656</v>
+        <v>310122</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1171203121759785</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1047194920243318</v>
+        <v>0.1036808742531483</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.132356884328231</v>
+        <v>0.1300364325292857</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>648590</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>616351</v>
+        <v>616449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>683664</v>
+        <v>684412</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5758030464913935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5471819672424374</v>
+        <v>0.5472690890762476</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.606940556922857</v>
+        <v>0.6076046731093901</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>710</v>
@@ -5687,19 +5687,19 @@
         <v>742500</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>707287</v>
+        <v>709006</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>778739</v>
+        <v>779286</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5899994660502919</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5620187958300398</v>
+        <v>0.5633843655031141</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6187955673067869</v>
+        <v>0.6192297885739819</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1324</v>
@@ -5708,19 +5708,19 @@
         <v>1391090</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1339432</v>
+        <v>1338498</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1435841</v>
+        <v>1440180</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5832943273690293</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5616335647946998</v>
+        <v>0.561241810635917</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6020587295442204</v>
+        <v>0.6038779689974769</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>288958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>259340</v>
+        <v>259197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>319710</v>
+        <v>319647</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2565296348448771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2302359287708644</v>
+        <v>0.2301086344336805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2838312635369996</v>
+        <v>0.2837749319932851</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>267</v>
@@ -5758,19 +5758,19 @@
         <v>283142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>252104</v>
+        <v>252196</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>311504</v>
+        <v>314439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2249881331473789</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2003245150836446</v>
+        <v>0.2003975902410021</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2475248975036863</v>
+        <v>0.2498566263849424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>538</v>
@@ -5779,19 +5779,19 @@
         <v>572100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>533112</v>
+        <v>529408</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619071</v>
+        <v>617837</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2398855614897557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2235378371440989</v>
+        <v>0.2219847776921444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2595808375477774</v>
+        <v>0.2590634098125312</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>47309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33498</v>
+        <v>33978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61645</v>
+        <v>62374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04199962142532528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02973858278610762</v>
+        <v>0.03016473565472639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0547273369283104</v>
+        <v>0.05537383818647292</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -5829,19 +5829,19 @@
         <v>60820</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45822</v>
+        <v>45755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77605</v>
+        <v>76857</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04832813546023885</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0364103280703118</v>
+        <v>0.03635746356416587</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06166589754755158</v>
+        <v>0.06107124374701428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>97</v>
@@ -5850,19 +5850,19 @@
         <v>108129</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88251</v>
+        <v>88612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131152</v>
+        <v>130262</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04533910262175708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03700410143941352</v>
+        <v>0.03715559230677665</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05499314529143389</v>
+        <v>0.05461968751134175</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>9858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5001</v>
+        <v>4670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17516</v>
+        <v>17158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01084665506276839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005502646741392978</v>
+        <v>0.005138549244660861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01927328936536891</v>
+        <v>0.01887932642268863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5975,19 +5975,19 @@
         <v>11670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5498</v>
+        <v>6215</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19829</v>
+        <v>20469</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01159444428777259</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005462298000813451</v>
+        <v>0.006174656801323638</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01970189740938227</v>
+        <v>0.02033769088036745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -5996,19 +5996,19 @@
         <v>21527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13345</v>
+        <v>13114</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33333</v>
+        <v>31577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01123961248582607</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006967396757927483</v>
+        <v>0.006847055713353687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01740359434284917</v>
+        <v>0.01648687503990358</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>125845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106397</v>
+        <v>106499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148412</v>
+        <v>148525</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1384701172252473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1170704984221092</v>
+        <v>0.1171828998667853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1633010321739516</v>
+        <v>0.1634252887064259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -6046,19 +6046,19 @@
         <v>146222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125095</v>
+        <v>125556</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171519</v>
+        <v>172149</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1452814368766655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1242901144343547</v>
+        <v>0.1247485870142139</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1704151911707614</v>
+        <v>0.1710417704490366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>262</v>
@@ -6067,19 +6067,19 @@
         <v>272067</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243564</v>
+        <v>242550</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>305461</v>
+        <v>303081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1420494127384027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1271674803525243</v>
+        <v>0.1266381087222304</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1594846091496477</v>
+        <v>0.1582421217941751</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>484555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>454736</v>
+        <v>452987</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>514277</v>
+        <v>511838</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5331663218499459</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5003558771128278</v>
+        <v>0.4984313309787756</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5658698977019674</v>
+        <v>0.5631865067707716</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>562</v>
@@ -6117,19 +6117,19 @@
         <v>597700</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>565572</v>
+        <v>564327</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>626875</v>
+        <v>629488</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5938544882067954</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5619330300522635</v>
+        <v>0.5606962325081986</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6228424129158018</v>
+        <v>0.6254382284735606</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1031</v>
@@ -6138,19 +6138,19 @@
         <v>1082255</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1039378</v>
+        <v>1040031</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1125938</v>
+        <v>1127392</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5650574813695948</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5426710975390455</v>
+        <v>0.5430118606742638</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5878652048728805</v>
+        <v>0.5886241627639949</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>251855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>227506</v>
+        <v>226862</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>281507</v>
+        <v>278830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2771214045887429</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2503299758920531</v>
+        <v>0.2496206938834923</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3097488168778508</v>
+        <v>0.3068022753032488</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -6188,19 +6188,19 @@
         <v>229609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>204433</v>
+        <v>201023</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259620</v>
+        <v>256035</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2281320647112651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2031181523865974</v>
+        <v>0.1997299599377476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2579493855346889</v>
+        <v>0.2543881045600563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>464</v>
@@ -6209,19 +6209,19 @@
         <v>481464</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>445107</v>
+        <v>442153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>518157</v>
+        <v>519889</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2513778874159159</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2323956602520304</v>
+        <v>0.2308531066032068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2705357365634645</v>
+        <v>0.2714400246723596</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>36712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24907</v>
+        <v>24687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51212</v>
+        <v>49013</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0403955012732954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02740584332329515</v>
+        <v>0.02716362646528541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05634915772500561</v>
+        <v>0.05392973023530283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -6259,19 +6259,19 @@
         <v>21274</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12482</v>
+        <v>12853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31658</v>
+        <v>31843</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02113756591750133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01240132765574641</v>
+        <v>0.01277056097099036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03145412392859381</v>
+        <v>0.03163829184870499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -6280,19 +6280,19 @@
         <v>57987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43912</v>
+        <v>42770</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>75178</v>
+        <v>73801</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03027560599026057</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02292673043972352</v>
+        <v>0.0223307198941133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03925132337264459</v>
+        <v>0.03853231278669472</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>11079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5550</v>
+        <v>5632</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19439</v>
+        <v>19628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0134942758727558</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00675981984209091</v>
+        <v>0.006859787574976794</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02367666710650775</v>
+        <v>0.02390648947218874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -6405,19 +6405,19 @@
         <v>11887</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5564</v>
+        <v>5350</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23107</v>
+        <v>23620</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01545820463259874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007235146290038173</v>
+        <v>0.006957412767981352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03004919666070729</v>
+        <v>0.03071677995839752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -6426,19 +6426,19 @@
         <v>22966</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14599</v>
+        <v>14608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36733</v>
+        <v>36436</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01444407983877319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009181683192179284</v>
+        <v>0.009187113662751609</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02310274405871212</v>
+        <v>0.0229157777694275</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>91636</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74343</v>
+        <v>74459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110447</v>
+        <v>111959</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1116096524679503</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09054826386697302</v>
+        <v>0.09068880149762726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1345212043661512</v>
+        <v>0.1363625926323256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -6476,19 +6476,19 @@
         <v>99087</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81847</v>
+        <v>81556</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120754</v>
+        <v>118654</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1288577677381435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1064383008017266</v>
+        <v>0.1060600169711881</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1570353390206958</v>
+        <v>0.1543047533649043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -6497,19 +6497,19 @@
         <v>190722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>164834</v>
+        <v>164161</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>217235</v>
+        <v>217864</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1199512627263921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1036691382065974</v>
+        <v>0.103246125434498</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1366261684775648</v>
+        <v>0.1370216027251384</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>469741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>439945</v>
+        <v>443736</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>498630</v>
+        <v>497910</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.572131761734936</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5358418564227492</v>
+        <v>0.5404583714797754</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6073180027672873</v>
+        <v>0.6064417309977953</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>418</v>
@@ -6547,19 +6547,19 @@
         <v>440823</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>413838</v>
+        <v>412581</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>467778</v>
+        <v>469469</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5732702166035953</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5381770481871752</v>
+        <v>0.5365431387942736</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6083245346358018</v>
+        <v>0.610522950183666</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>868</v>
@@ -6568,19 +6568,19 @@
         <v>910564</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>873599</v>
+        <v>868075</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>950768</v>
+        <v>950651</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5726823463444668</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5494339884450244</v>
+        <v>0.5459594520891461</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5979674993941531</v>
+        <v>0.5978943339830461</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>227216</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>199776</v>
+        <v>201202</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>255405</v>
+        <v>251978</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2767429897085415</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2433222114662451</v>
+        <v>0.2450582068701814</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3110767753024787</v>
+        <v>0.3069029414290324</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>188</v>
@@ -6618,19 +6618,19 @@
         <v>195325</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>170658</v>
+        <v>173090</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221763</v>
+        <v>221507</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2540117989675544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2219327583201718</v>
+        <v>0.2250954967611073</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2883925364917775</v>
+        <v>0.2880594327768856</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>402</v>
@@ -6639,19 +6639,19 @@
         <v>422542</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>388677</v>
+        <v>388321</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>456647</v>
+        <v>461180</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2657496300920684</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2444511622153957</v>
+        <v>0.2442272991951314</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2871996537528507</v>
+        <v>0.2900504939553692</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>21364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13133</v>
+        <v>12893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31777</v>
+        <v>32309</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02602132021581636</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01599559265442265</v>
+        <v>0.01570383006733705</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03870383445676241</v>
+        <v>0.03935109198717626</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -6689,19 +6689,19 @@
         <v>21840</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14214</v>
+        <v>13062</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33748</v>
+        <v>32002</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02840201205810807</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01848411825148067</v>
+        <v>0.01698620716668831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04388768674470217</v>
+        <v>0.0416177511746742</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -6710,19 +6710,19 @@
         <v>43205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32502</v>
+        <v>31872</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59313</v>
+        <v>59978</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02717268099829951</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02044128178265112</v>
+        <v>0.02004500039457944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03730377909637313</v>
+        <v>0.03772231413231338</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>7985</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3762</v>
+        <v>3786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15352</v>
+        <v>15051</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01582444581716469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007455434294762997</v>
+        <v>0.007503447592924456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0304230646866007</v>
+        <v>0.02982559675451405</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -6835,19 +6835,19 @@
         <v>5282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1974</v>
+        <v>1981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11886</v>
+        <v>11369</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01085089115228197</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004054586360370921</v>
+        <v>0.00406949065038979</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02441663479861907</v>
+        <v>0.02335563220506255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -6856,19 +6856,19 @@
         <v>13267</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7197</v>
+        <v>7226</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21604</v>
+        <v>22372</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01338241280295558</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007258945774471792</v>
+        <v>0.007288832085449904</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02179148438897843</v>
+        <v>0.02256616881810996</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>56268</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>43273</v>
+        <v>42443</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>73397</v>
+        <v>71790</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1115041972813064</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0857526975696916</v>
+        <v>0.0841088397157085</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1454484308624938</v>
+        <v>0.1422643221752049</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -6906,19 +6906,19 @@
         <v>60457</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46818</v>
+        <v>47388</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>76556</v>
+        <v>75796</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1241968694877858</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09617841198486066</v>
+        <v>0.09734904522704951</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1572683883142203</v>
+        <v>0.155706678845081</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>108</v>
@@ -6927,19 +6927,19 @@
         <v>116725</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>98693</v>
+        <v>98482</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>140537</v>
+        <v>139475</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1177363444386732</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09954834318360414</v>
+        <v>0.09933562776797583</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1417545340666854</v>
+        <v>0.1406834846877064</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>293970</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>272598</v>
+        <v>270848</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>317499</v>
+        <v>316306</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5825516053148969</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5402009607207102</v>
+        <v>0.5367328860530985</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6291788948912256</v>
+        <v>0.6268146750510406</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>269</v>
@@ -6977,19 +6977,19 @@
         <v>288572</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>266331</v>
+        <v>266403</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>310446</v>
+        <v>311063</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5928099463510234</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5471216863493655</v>
+        <v>0.5472687969588999</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6377455296814895</v>
+        <v>0.6390146702033966</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>544</v>
@@ -6998,19 +6998,19 @@
         <v>582541</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>548390</v>
+        <v>551183</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>613036</v>
+        <v>611712</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5875884872171143</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5531410351501964</v>
+        <v>0.555958318824274</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6183476318493124</v>
+        <v>0.6170121960413272</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>138215</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117661</v>
+        <v>117037</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>158750</v>
+        <v>160049</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2738974423981724</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2331664608088068</v>
+        <v>0.2319294116118063</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3145907530747116</v>
+        <v>0.3171652607886665</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>115</v>
@@ -7048,19 +7048,19 @@
         <v>124020</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>104645</v>
+        <v>104559</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>145156</v>
+        <v>144266</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2547727381973175</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2149712446884544</v>
+        <v>0.2147954214065029</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2981926208457935</v>
+        <v>0.2963639050025185</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>242</v>
@@ -7069,19 +7069,19 @@
         <v>262235</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>233097</v>
+        <v>234632</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>291132</v>
+        <v>291882</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2645071446750503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2351167981298734</v>
+        <v>0.2366652241764228</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2936546240687947</v>
+        <v>0.2944108063517821</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>8186</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3554</v>
+        <v>3497</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16954</v>
+        <v>16990</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01622230918845953</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007042924531225279</v>
+        <v>0.006929862298497955</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03359789037819251</v>
+        <v>0.0336687843573136</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7119,19 +7119,19 @@
         <v>8455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3662</v>
+        <v>3419</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18120</v>
+        <v>17275</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01736955481159135</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007522168127082381</v>
+        <v>0.007022811861767162</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03722385357259692</v>
+        <v>0.03548688670000371</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -7140,19 +7140,19 @@
         <v>16641</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9482</v>
+        <v>9867</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27796</v>
+        <v>27120</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01678561086620652</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009564124789208962</v>
+        <v>0.009952543375572068</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02803633750723185</v>
+        <v>0.02735472756627717</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>44714</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32445</v>
+        <v>32632</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59777</v>
+        <v>58992</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01330419789362744</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00965379328814878</v>
+        <v>0.009709300732114184</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01778611276216316</v>
+        <v>0.01755251099418152</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -7265,19 +7265,19 @@
         <v>47295</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33985</v>
+        <v>33849</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>63351</v>
+        <v>63518</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01343351365298468</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009653015587634537</v>
+        <v>0.009614273379300431</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01799372921260304</v>
+        <v>0.01804124633568373</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>86</v>
@@ -7286,19 +7286,19 @@
         <v>92009</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>73481</v>
+        <v>73529</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112347</v>
+        <v>114571</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01337035725140488</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01067792993672442</v>
+        <v>0.01068482917596869</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01632573486525926</v>
+        <v>0.01664894581841099</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>399510</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>364393</v>
+        <v>362568</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>437470</v>
+        <v>437591</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1188701407862914</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1084212993006105</v>
+        <v>0.1078785175650442</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1301645958836737</v>
+        <v>0.1302005611880922</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>423</v>
@@ -7336,19 +7336,19 @@
         <v>459323</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>422394</v>
+        <v>419611</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>505185</v>
+        <v>501727</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1304635881218165</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1199744746001432</v>
+        <v>0.1191838560123615</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1434900069276207</v>
+        <v>0.1425078657524278</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>812</v>
@@ -7357,19 +7357,19 @@
         <v>858833</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>803456</v>
+        <v>804915</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>918726</v>
+        <v>917031</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1248014753270878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1167542793338987</v>
+        <v>0.116966363938867</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1335047806328815</v>
+        <v>0.133258411374531</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>1896856</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1832327</v>
+        <v>1840493</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1955155</v>
+        <v>1957025</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5643899932093249</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5451899640925073</v>
+        <v>0.5476197696420402</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5817362495006991</v>
+        <v>0.5822927195030154</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1959</v>
@@ -7407,19 +7407,19 @@
         <v>2069595</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2009831</v>
+        <v>2011416</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2135546</v>
+        <v>2129618</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5878362384213113</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5708611684524472</v>
+        <v>0.5713114821370809</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6065684544608563</v>
+        <v>0.6048848692009011</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3767</v>
@@ -7428,19 +7428,19 @@
         <v>3966451</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3886648</v>
+        <v>3887798</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4049732</v>
+        <v>4053687</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5763853488661105</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5647887071398416</v>
+        <v>0.5649559228182149</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5884873621516877</v>
+        <v>0.5890620783053626</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>906244</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>854823</v>
+        <v>854424</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>961431</v>
+        <v>958168</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2696435283441172</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2543438163001456</v>
+        <v>0.2542250368115643</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2860639547507635</v>
+        <v>0.285092934682256</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>793</v>
@@ -7478,19 +7478,19 @@
         <v>832097</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>779315</v>
+        <v>778063</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>881858</v>
+        <v>882905</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.236344149652682</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2213521474249286</v>
+        <v>0.2209967902644495</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2504781617522968</v>
+        <v>0.2507753328295776</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1646</v>
@@ -7499,19 +7499,19 @@
         <v>1738341</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1665638</v>
+        <v>1668006</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1812224</v>
+        <v>1807052</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2526072017620875</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2420424205073401</v>
+        <v>0.2423865572390666</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2633436184770705</v>
+        <v>0.2625919773814424</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>113572</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>92984</v>
+        <v>92470</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>134869</v>
+        <v>134207</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.033792139766639</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0276664036078855</v>
+        <v>0.02751356123026374</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04012886488969127</v>
+        <v>0.03993176857235845</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>100</v>
@@ -7549,19 +7549,19 @@
         <v>112390</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>91587</v>
+        <v>93488</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>136006</v>
+        <v>134592</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03192251015120555</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02601377776391627</v>
+        <v>0.02655384155347619</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03863048119242773</v>
+        <v>0.03822884394475416</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>205</v>
@@ -7570,19 +7570,19 @@
         <v>225961</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>194364</v>
+        <v>196027</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>255497</v>
+        <v>257253</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03283561679330943</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02824403019415157</v>
+        <v>0.02848564477976235</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03712759280236771</v>
+        <v>0.03738269415515644</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>7011</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2750</v>
+        <v>2399</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16274</v>
+        <v>15820</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01408993857820872</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005525847920406481</v>
+        <v>0.004820906811013886</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03270619383909365</v>
+        <v>0.03179392275712112</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -7935,19 +7935,19 @@
         <v>5712</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2941</v>
+        <v>2714</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10605</v>
+        <v>9822</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.009184294504443361</v>
+        <v>0.009184294504443359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004728099684992106</v>
+        <v>0.004364053363970242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01705189934276162</v>
+        <v>0.0157929500434061</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -7956,19 +7956,19 @@
         <v>12723</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7392</v>
+        <v>7218</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20765</v>
+        <v>22717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01136463658488424</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006602400330489057</v>
+        <v>0.006447631411807514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01854775990843265</v>
+        <v>0.02029190078932498</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>30425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20650</v>
+        <v>20335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43092</v>
+        <v>43780</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06114675716055961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04150092909700283</v>
+        <v>0.04086792560959303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08660387798419121</v>
+        <v>0.08798528462809034</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -8006,19 +8006,19 @@
         <v>60201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48393</v>
+        <v>47128</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77311</v>
+        <v>76828</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09679529909176722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07780938805555652</v>
+        <v>0.07577479521947517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1243050803955296</v>
+        <v>0.1235293063908277</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>122</v>
@@ -8027,19 +8027,19 @@
         <v>90627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75426</v>
+        <v>75772</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111530</v>
+        <v>111628</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08095109700327086</v>
+        <v>0.08095109700327084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06737305465854421</v>
+        <v>0.06768237979456167</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09962299514051468</v>
+        <v>0.09970999270920791</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>229066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>206570</v>
+        <v>205277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>254572</v>
+        <v>256813</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4603619190259546</v>
+        <v>0.4603619190259547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4151508059213691</v>
+        <v>0.4125520298407384</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5116216630186005</v>
+        <v>0.5161255818027241</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>418</v>
@@ -8077,19 +8077,19 @@
         <v>296688</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>273765</v>
+        <v>272542</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>318374</v>
+        <v>318691</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4770332815536338</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4401759987191639</v>
+        <v>0.4382084706847996</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5119006098128097</v>
+        <v>0.5124099513086093</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>631</v>
@@ -8098,19 +8098,19 @@
         <v>525755</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>491673</v>
+        <v>495204</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>559767</v>
+        <v>561657</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4696235973794854</v>
+        <v>0.4696235973794855</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4391806499363998</v>
+        <v>0.4423341045338839</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5000044217369837</v>
+        <v>0.5016925980209936</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>206643</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>182647</v>
+        <v>181943</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231938</v>
+        <v>231835</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4152958793770472</v>
+        <v>0.4152958793770473</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3670709735245684</v>
+        <v>0.3656571853036676</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4661334838063835</v>
+        <v>0.4659262414387665</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>318</v>
@@ -8148,19 +8148,19 @@
         <v>243757</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>222344</v>
+        <v>222119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265752</v>
+        <v>265936</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3919268412456738</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3574980995111381</v>
+        <v>0.357135668462252</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4272922290206875</v>
+        <v>0.4275883327941551</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>498</v>
@@ -8169,19 +8169,19 @@
         <v>450399</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>417315</v>
+        <v>416106</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>484618</v>
+        <v>485858</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4023133463510375</v>
+        <v>0.4023133463510374</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3727615052805831</v>
+        <v>0.3716812155982283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4328784525066212</v>
+        <v>0.4339865029776881</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>24434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15488</v>
+        <v>14820</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38736</v>
+        <v>37592</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04910550585822967</v>
+        <v>0.04910550585822968</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03112741046940337</v>
+        <v>0.02978494055094949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07784837879327712</v>
+        <v>0.07554997779007624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -8219,19 +8219,19 @@
         <v>15586</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10192</v>
+        <v>10045</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23950</v>
+        <v>23417</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02506028360448178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01638747350602317</v>
+        <v>0.01615156223626562</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03850842149982122</v>
+        <v>0.03765059829468049</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -8240,19 +8240,19 @@
         <v>40020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28364</v>
+        <v>29163</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53605</v>
+        <v>55104</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03574732268132198</v>
+        <v>0.03574732268132196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02533616900958624</v>
+        <v>0.02604982690455728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04788173028103969</v>
+        <v>0.04922086752606763</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>11474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6689</v>
+        <v>6322</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20005</v>
+        <v>19198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01195761880039174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006971472948959338</v>
+        <v>0.006588591079179534</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0208485495397803</v>
+        <v>0.0200073480182072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -8365,19 +8365,19 @@
         <v>9077</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5030</v>
+        <v>4847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16649</v>
+        <v>16540</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008139514815648334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004510511687812125</v>
+        <v>0.004346368528209928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01492897060182014</v>
+        <v>0.01483128907555451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -8386,19 +8386,19 @@
         <v>20551</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13253</v>
+        <v>13795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30336</v>
+        <v>30097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009905353263702982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006388019770614196</v>
+        <v>0.006648991005717018</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01462161957475305</v>
+        <v>0.01450670557855644</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>50372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38110</v>
+        <v>38401</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65863</v>
+        <v>64767</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05249613705266579</v>
+        <v>0.05249613705266581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03971714025460179</v>
+        <v>0.04002006190529567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06864068871284582</v>
+        <v>0.06749805562510007</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -8436,19 +8436,19 @@
         <v>79732</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67903</v>
+        <v>66952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93624</v>
+        <v>94987</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07149734489697383</v>
+        <v>0.07149734489697382</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06088922013757502</v>
+        <v>0.06003726948814813</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08395384221229289</v>
+        <v>0.08517605014799595</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -8457,19 +8457,19 @@
         <v>130105</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112805</v>
+        <v>111033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151786</v>
+        <v>150795</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.06270945868302316</v>
+        <v>0.06270945868302318</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05437131706292295</v>
+        <v>0.05351727033450061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07315959993402803</v>
+        <v>0.0726821501033058</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>450057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>414284</v>
+        <v>414971</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>480471</v>
+        <v>485439</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.469034116914435</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4317527068681887</v>
+        <v>0.4324695758814691</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5007313465648385</v>
+        <v>0.5059087908157845</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>873</v>
@@ -8507,19 +8507,19 @@
         <v>594286</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>567079</v>
+        <v>567262</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>624257</v>
+        <v>625802</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5329052832250526</v>
+        <v>0.5329052832250527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5085088601572549</v>
+        <v>0.5086729673527176</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5597811052510719</v>
+        <v>0.5611665499009882</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1311</v>
@@ -8528,19 +8528,19 @@
         <v>1044342</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1000026</v>
+        <v>1001371</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1092689</v>
+        <v>1090686</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5033654483635458</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4820051021020815</v>
+        <v>0.4826537747754615</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5266683944181021</v>
+        <v>0.5257026231440404</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>414990</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>385456</v>
+        <v>378094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>451538</v>
+        <v>450811</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4324889934521559</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4017096880917238</v>
+        <v>0.3940370677155793</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4705779882611484</v>
+        <v>0.4698200488071915</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>557</v>
@@ -8578,19 +8578,19 @@
         <v>415133</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>383980</v>
+        <v>387155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>441871</v>
+        <v>442020</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3722563617526489</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3443208160016843</v>
+        <v>0.3471682513440306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3962321876887128</v>
+        <v>0.3963660799576104</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>921</v>
@@ -8599,19 +8599,19 @@
         <v>830123</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>785615</v>
+        <v>783478</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>875092</v>
+        <v>874345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4001134073720213</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3786605188057406</v>
+        <v>0.3776309148315219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.421787978140076</v>
+        <v>0.4214279062101531</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>32647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22523</v>
+        <v>21402</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48319</v>
+        <v>47951</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03402313378035161</v>
+        <v>0.0340231337803516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02347282826522736</v>
+        <v>0.02230447667228003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05035627990668797</v>
+        <v>0.04997243806331252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -8649,19 +8649,19 @@
         <v>16952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9951</v>
+        <v>10187</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27380</v>
+        <v>28952</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01520149530967624</v>
+        <v>0.01520149530967625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008923509362262556</v>
+        <v>0.009135202174925056</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02455217260208535</v>
+        <v>0.02596207073917017</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>49</v>
@@ -8670,19 +8670,19 @@
         <v>49599</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35367</v>
+        <v>36676</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>67878</v>
+        <v>67472</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02390633231770672</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01704671149706381</v>
+        <v>0.01767761919558448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03271673727003973</v>
+        <v>0.03252087137942631</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>4864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1860</v>
+        <v>1945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10859</v>
+        <v>10573</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004648034559689977</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001777670370171048</v>
+        <v>0.0018583938180296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01037696402667387</v>
+        <v>0.0101038385784886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -8795,19 +8795,19 @@
         <v>11623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6773</v>
+        <v>7140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18158</v>
+        <v>17996</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01109407746359408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006464809682425883</v>
+        <v>0.006815514140520156</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01733182851527594</v>
+        <v>0.01717795860324108</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -8816,19 +8816,19 @@
         <v>16487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10836</v>
+        <v>11104</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24161</v>
+        <v>24402</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007872844973494339</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005174557678220414</v>
+        <v>0.005302490347274944</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01153757188592503</v>
+        <v>0.01165241196762555</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>54547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41661</v>
+        <v>43439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69840</v>
+        <v>70544</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05212438316011804</v>
+        <v>0.05212438316011805</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0398109291073134</v>
+        <v>0.04150951407466438</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06673852866075536</v>
+        <v>0.06741075984397668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -8866,19 +8866,19 @@
         <v>71453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59389</v>
+        <v>59528</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86064</v>
+        <v>87664</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06820404021437364</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05668805681501373</v>
+        <v>0.05682056000920546</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08214988258665976</v>
+        <v>0.08367713309012448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -8887,19 +8887,19 @@
         <v>126000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>107373</v>
+        <v>109284</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147098</v>
+        <v>147566</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06016867425342747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05127330754042512</v>
+        <v>0.05218593332113775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07024341271049837</v>
+        <v>0.07046681565558853</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>615144</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>582009</v>
+        <v>581166</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>649609</v>
+        <v>647156</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.587822865846602</v>
+        <v>0.5878228658466018</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5561593244049889</v>
+        <v>0.5553532926766885</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6207563735371745</v>
+        <v>0.6184131587034692</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>933</v>
@@ -8937,19 +8937,19 @@
         <v>624565</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>598543</v>
+        <v>597562</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>653844</v>
+        <v>655084</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.59616309758927</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5713237918355053</v>
+        <v>0.5703871677893984</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.624110257186417</v>
+        <v>0.6252936145099945</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1550</v>
@@ -8958,19 +8958,19 @@
         <v>1239710</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1194778</v>
+        <v>1194369</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1282828</v>
+        <v>1285481</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.591995296371538</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5705389963311674</v>
+        <v>0.5703438029837191</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6125854336849292</v>
+        <v>0.613852316572596</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>349202</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>315954</v>
+        <v>315366</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>382867</v>
+        <v>383664</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.333692593714154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3019207480765026</v>
+        <v>0.3013586799757144</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3658620899203077</v>
+        <v>0.3666239713981829</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>434</v>
@@ -9008,19 +9008,19 @@
         <v>329416</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>301258</v>
+        <v>301744</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>356209</v>
+        <v>355219</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.314435463681797</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2875582328716191</v>
+        <v>0.2880221441043329</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3400097879564724</v>
+        <v>0.3390653451756135</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>753</v>
@@ -9029,19 +9029,19 @@
         <v>678618</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>638861</v>
+        <v>633655</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>723950</v>
+        <v>721437</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.324058684291876</v>
+        <v>0.3240586842918761</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3050733875289295</v>
+        <v>0.3025875480867721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3457058825422332</v>
+        <v>0.3445056442110997</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>22721</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14314</v>
+        <v>13844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34908</v>
+        <v>35325</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02171212271943612</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01367792928711373</v>
+        <v>0.01322916043391268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03335739790472603</v>
+        <v>0.03375615755968077</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -9079,19 +9079,19 @@
         <v>10585</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5305</v>
+        <v>5378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19792</v>
+        <v>20097</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01010332105096529</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005063727915505973</v>
+        <v>0.005133423648443839</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01889190526330649</v>
+        <v>0.0191830297913314</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -9100,19 +9100,19 @@
         <v>33306</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22852</v>
+        <v>21970</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46086</v>
+        <v>48001</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01590450010966406</v>
+        <v>0.01590450010966407</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01091242245800988</v>
+        <v>0.01049115151709624</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02200742828701761</v>
+        <v>0.02292197998225821</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>7208</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3667</v>
+        <v>3920</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12900</v>
+        <v>13454</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007385765322541537</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003757389788630243</v>
+        <v>0.00401701771836913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01321775543471703</v>
+        <v>0.01378553593271835</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -9225,19 +9225,19 @@
         <v>18221</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11953</v>
+        <v>12258</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26116</v>
+        <v>26406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02007062101338224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01316600967328564</v>
+        <v>0.01350257156887436</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02876683687847428</v>
+        <v>0.02908649606231913</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -9246,19 +9246,19 @@
         <v>25429</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18279</v>
+        <v>18529</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35132</v>
+        <v>34661</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01349898293916229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009703340814107272</v>
+        <v>0.009836224473973646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01864999842949724</v>
+        <v>0.0183997834486245</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>81597</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>66256</v>
+        <v>67245</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>99443</v>
+        <v>100491</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08360984710063579</v>
+        <v>0.08360984710063578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06789012473638226</v>
+        <v>0.06890365498781552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1018952761115183</v>
+        <v>0.1029693577451982</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>168</v>
@@ -9296,19 +9296,19 @@
         <v>115514</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>98211</v>
+        <v>98487</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>134971</v>
+        <v>134962</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1272394369479593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1081798076760049</v>
+        <v>0.1084841644593495</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1486703712383753</v>
+        <v>0.1486611824599235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>262</v>
@@ -9317,19 +9317,19 @@
         <v>197112</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>171903</v>
+        <v>173021</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>224167</v>
+        <v>223157</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1046362729237678</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09125422737069702</v>
+        <v>0.09184774130740628</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1189986525155855</v>
+        <v>0.1184623433561859</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>598007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>566202</v>
+        <v>565943</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>635747</v>
+        <v>629426</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6127564017170261</v>
+        <v>0.6127564017170259</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5801667142103692</v>
+        <v>0.5799013695429004</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6514274256856489</v>
+        <v>0.6449504585330285</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>794</v>
@@ -9367,19 +9367,19 @@
         <v>543572</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>515812</v>
+        <v>516586</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>570898</v>
+        <v>570580</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5987454367258654</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5681677050723096</v>
+        <v>0.5690208340873576</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6288452469305816</v>
+        <v>0.628495166285663</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1384</v>
@@ -9388,19 +9388,19 @@
         <v>1141578</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1096842</v>
+        <v>1094377</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1184936</v>
+        <v>1185647</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6060040917107192</v>
+        <v>0.6060040917107193</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5822558644104037</v>
+        <v>0.580947359844481</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6290201823701211</v>
+        <v>0.6293979751674834</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>271839</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>241154</v>
+        <v>240431</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306407</v>
+        <v>303346</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2785433560659972</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2471016310214434</v>
+        <v>0.2463612822346009</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3139645225586742</v>
+        <v>0.3108283552131978</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>300</v>
@@ -9438,19 +9438,19 @@
         <v>201183</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>176980</v>
+        <v>179568</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>221989</v>
+        <v>225578</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2216038514604755</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1949443753703741</v>
+        <v>0.1977948279871779</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2445209096619722</v>
+        <v>0.2484744006941638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>537</v>
@@ -9459,19 +9459,19 @@
         <v>473022</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>436769</v>
+        <v>433211</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>515458</v>
+        <v>516401</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2511024776579383</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2318575176425721</v>
+        <v>0.2299691530677901</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2736298385207004</v>
+        <v>0.2741299495510089</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>17278</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9996</v>
+        <v>9880</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29732</v>
+        <v>29278</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01770462979379967</v>
+        <v>0.01770462979379966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01024243399159272</v>
+        <v>0.01012412847909287</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03046524823276936</v>
+        <v>0.0299996880337503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>29</v>
@@ -9509,19 +9509,19 @@
         <v>29360</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>20257</v>
+        <v>18777</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44428</v>
+        <v>43388</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03234065385231756</v>
+        <v>0.03234065385231755</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02231349417087055</v>
+        <v>0.02068275319593908</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04893747345833899</v>
+        <v>0.04779156043035945</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -9530,19 +9530,19 @@
         <v>46639</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33425</v>
+        <v>31996</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64628</v>
+        <v>63710</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02475817476841236</v>
+        <v>0.02475817476841237</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01774361027359178</v>
+        <v>0.01698510385237248</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03430773094191129</v>
+        <v>0.03382047713818802</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>30557</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21589</v>
+        <v>21596</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42748</v>
+        <v>43790</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.008781860498545504</v>
+        <v>0.008781860498545502</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006204627081131157</v>
+        <v>0.006206573420710114</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01228557420545833</v>
+        <v>0.01258517766432558</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>71</v>
@@ -9655,19 +9655,19 @@
         <v>44633</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34279</v>
+        <v>35452</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56096</v>
+        <v>56888</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01208706150733822</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00928305252898599</v>
+        <v>0.009600763562061422</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01519136858601149</v>
+        <v>0.01540575960524501</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -9676,19 +9676,19 @@
         <v>75190</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61287</v>
+        <v>61010</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>93135</v>
+        <v>92971</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01048356146651993</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008545164479606316</v>
+        <v>0.008506493986297615</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01298566400540117</v>
+        <v>0.01296284091148441</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>216942</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>191295</v>
+        <v>189114</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>245938</v>
+        <v>243767</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06234808420561649</v>
+        <v>0.06234808420561648</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0549772820358469</v>
+        <v>0.05435055337129985</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07068139185534907</v>
+        <v>0.07005748762539843</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>517</v>
@@ -9726,19 +9726,19 @@
         <v>326902</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>297073</v>
+        <v>294152</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>357331</v>
+        <v>357420</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08852841579674089</v>
+        <v>0.08852841579674088</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08045056365388498</v>
+        <v>0.07965959006045968</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0967689348610144</v>
+        <v>0.09679303582126031</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>775</v>
@@ -9747,19 +9747,19 @@
         <v>543843</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>504140</v>
+        <v>505069</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>583423</v>
+        <v>585913</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07582717231311432</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07029135837126096</v>
+        <v>0.07042087337809778</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08134563941068255</v>
+        <v>0.08169291668316306</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>1892275</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1827709</v>
+        <v>1825165</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1962498</v>
+        <v>1953462</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5438309654304255</v>
+        <v>0.5438309654304254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5252749932010887</v>
+        <v>0.5245439737033928</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5640128175336523</v>
+        <v>0.5614160331176412</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3018</v>
@@ -9797,19 +9797,19 @@
         <v>2059111</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2005913</v>
+        <v>2005641</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2114491</v>
+        <v>2117915</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5576289946951871</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.543222449467791</v>
+        <v>0.5431488003036976</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5726265780938762</v>
+        <v>0.5735537898321583</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4876</v>
@@ -9818,19 +9818,19 @@
         <v>3951385</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3866036</v>
+        <v>3875211</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4031434</v>
+        <v>4038127</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5509349568952475</v>
+        <v>0.5509349568952474</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5390348461493969</v>
+        <v>0.5403141284744782</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5620960557970509</v>
+        <v>0.5630291988349699</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1242674</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1173993</v>
+        <v>1179444</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1305236</v>
+        <v>1304284</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3571386992770781</v>
+        <v>0.357138699277078</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3374001633201097</v>
+        <v>0.3389666608257722</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3751186602498277</v>
+        <v>0.3748450637988424</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1609</v>
@@ -9868,19 +9868,19 @@
         <v>1189489</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1135684</v>
+        <v>1139285</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1239541</v>
+        <v>1245018</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3221261809049242</v>
+        <v>0.3221261809049243</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3075552777968518</v>
+        <v>0.3085304158811405</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3356807525205859</v>
+        <v>0.3371639126389139</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2709</v>
@@ -9889,19 +9889,19 @@
         <v>2432163</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2346524</v>
+        <v>2346076</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2523423</v>
+        <v>2509233</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3391123110947512</v>
+        <v>0.3391123110947511</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3271718618857128</v>
+        <v>0.3271093683119514</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3518365261821993</v>
+        <v>0.3498581346528675</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>97080</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>76636</v>
+        <v>76750</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>121406</v>
+        <v>119898</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02790039058833447</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02202473161799317</v>
+        <v>0.02205773620972983</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03489143231768303</v>
+        <v>0.03445805648445297</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>84</v>
@@ -9939,19 +9939,19 @@
         <v>72484</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>57884</v>
+        <v>58363</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>91965</v>
+        <v>93254</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01962934709580942</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01567555322930676</v>
+        <v>0.01580532920522574</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0249050952362906</v>
+        <v>0.02525412264632335</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>168</v>
@@ -9960,19 +9960,19 @@
         <v>169564</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>143570</v>
+        <v>145312</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>200771</v>
+        <v>201543</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02364199823036726</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02001768701709183</v>
+        <v>0.02026060050775559</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02799314956738913</v>
+        <v>0.02810082299375362</v>
       </c>
     </row>
     <row r="33">
